--- a/note/struct.xlsx
+++ b/note/struct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9760" yWindow="0" windowWidth="26160" windowHeight="13700" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13800" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="FAT12" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="目录项" sheetId="3" r:id="rId3"/>
     <sheet name="ELF数据类型" sheetId="4" r:id="rId4"/>
     <sheet name="工作表4" sheetId="5" r:id="rId5"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="499">
   <si>
     <t>jmp LABEL_START
 nop</t>
@@ -2159,6 +2160,542 @@
     <t>sh_flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0f8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后缀名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首簇号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分 0-59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒 (*2)0-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时 0-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日 1-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月 1-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年(-1980) 0-119</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0600h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0700h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0184fh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ah=6 al=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑底白字bl=07h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上角（0，0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下角（80，50）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ah</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软驱复位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13h读硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根目录有14个扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">读根目录找到LOADER </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录项得到首簇号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存首簇号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAT1有9个扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首簇号加载FAT1扇区，搜索剩下簇号，并加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过簇号加载扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过首簇号加载，搜索余下簇号，并且加载扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每磁道扇区数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇区号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁道号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁头号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>＝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>al</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁头号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁道号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>es:bx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取扇区数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始扇区数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动器号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据缓冲区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPB_SecPerTrk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDSec:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ax 传递参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mov </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootstartsec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootnumdec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0eh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rootstartsec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2405,7 +2942,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2425,29 +2962,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2455,16 +2991,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2476,21 +3012,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2512,60 +3075,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="23">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -2575,6 +3122,8 @@
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2584,6 +3133,8 @@
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2915,769 +3466,769 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
-    <col min="3" max="4" width="10.83203125" style="2"/>
-    <col min="5" max="5" width="22" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" style="2" customWidth="1"/>
-    <col min="7" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="11.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="28" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="22" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="25">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="25">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="I3" s="2">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="I4" s="2">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="I4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="25">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="25">
         <v>8</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>3</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="I6" s="2">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="I6" s="1">
         <v>4</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="I7" s="2">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="I7" s="1">
         <v>5</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="I8" s="2">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="I8" s="1">
         <v>6</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="I9" s="2">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="I9" s="1">
         <v>7</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="I10" s="2">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="I11" s="2">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="I11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="I12" s="2">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="I12" s="1">
         <v>10</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="25">
         <v>11</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="25">
         <v>2</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>11</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="I14" s="2">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="I14" s="1">
         <v>12</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>13</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>13</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="23">
         <v>14</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="23">
         <v>2</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>14</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="I17" s="2">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="I17" s="1">
         <v>15</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>16</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>16</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="23">
         <v>17</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="23">
         <v>2</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <v>17</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="I20" s="2">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="I20" s="1">
         <v>18</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="23">
         <v>19</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="23">
         <v>2</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <v>19</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="10" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="I22" s="2" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="I22" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>21</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="23">
         <v>22</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="23">
         <v>2</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="23">
         <v>24</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="23">
         <v>2</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="23" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="23">
         <v>26</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="23">
         <v>2</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="23" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="23">
         <v>28</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="23">
         <v>4</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="23">
         <v>32</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="23">
         <v>4</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>36</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>37</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>38</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>1</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="2" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="11">
         <v>39</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="11">
         <v>4</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="13"/>
@@ -3687,7 +4238,7 @@
       <c r="F42" s="13"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="13"/>
@@ -3697,385 +4248,385 @@
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="11">
         <v>43</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="11">
         <v>11</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="20" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13"/>
-      <c r="F46" s="11"/>
+      <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
       <c r="E47" s="13"/>
-      <c r="F47" s="11"/>
+      <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
       <c r="E48" s="13"/>
-      <c r="F48" s="11"/>
+      <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
       <c r="E49" s="13"/>
-      <c r="F49" s="11"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
       <c r="E50" s="13"/>
-      <c r="F50" s="11"/>
+      <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
       <c r="E51" s="13"/>
-      <c r="F51" s="11"/>
+      <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="11"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="3">
+      <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
       <c r="E53" s="13"/>
-      <c r="F53" s="11"/>
+      <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="3">
+      <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
       <c r="E54" s="13"/>
-      <c r="F54" s="11"/>
+      <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="8">
+      <c r="C56" s="11">
         <v>54</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="11">
         <v>8</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="14" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
       <c r="D57" s="13"/>
       <c r="E57" s="13"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="15"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
       <c r="E58" s="13"/>
-      <c r="F58" s="18"/>
+      <c r="F58" s="15"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13"/>
-      <c r="F59" s="18"/>
+      <c r="F59" s="15"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
       <c r="E60" s="13"/>
-      <c r="F60" s="18"/>
+      <c r="F60" s="15"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
       <c r="E61" s="13"/>
-      <c r="F61" s="18"/>
+      <c r="F61" s="15"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13"/>
-      <c r="F62" s="18"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="19"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" ht="15" customHeight="1">
-      <c r="A64" s="3">
+      <c r="A64" s="2">
         <v>62</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="8">
+      <c r="C64" s="11">
         <v>62</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="11">
         <v>448</v>
       </c>
-      <c r="E64" s="14" t="s">
+      <c r="E64" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F64" s="14" t="s">
+      <c r="F64" s="17" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>509</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="19"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>510</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="8">
+      <c r="C67" s="11">
         <v>510</v>
       </c>
-      <c r="D67" s="8">
+      <c r="D67" s="11">
         <v>2</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>511</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B5:B12"/>
+    <mergeCell ref="C5:C12"/>
+    <mergeCell ref="D5:D12"/>
+    <mergeCell ref="E5:E12"/>
+    <mergeCell ref="F5:F12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="C45:C55"/>
+    <mergeCell ref="D45:D55"/>
+    <mergeCell ref="E45:E55"/>
+    <mergeCell ref="F45:F55"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="C41:C44"/>
+    <mergeCell ref="D41:D44"/>
+    <mergeCell ref="E41:E44"/>
+    <mergeCell ref="F41:F44"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="B56:B63"/>
+    <mergeCell ref="C56:C63"/>
+    <mergeCell ref="D56:D63"/>
+    <mergeCell ref="E56:E63"/>
+    <mergeCell ref="F56:F63"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="B67:B68"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="J3:J11"/>
     <mergeCell ref="J12:J20"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="J23:J24"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="B67:B68"/>
     <mergeCell ref="K3:K11"/>
     <mergeCell ref="K12:K20"/>
-    <mergeCell ref="B56:B63"/>
-    <mergeCell ref="C56:C63"/>
-    <mergeCell ref="D56:D63"/>
-    <mergeCell ref="E56:E63"/>
-    <mergeCell ref="F56:F63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="C41:C44"/>
-    <mergeCell ref="D41:D44"/>
-    <mergeCell ref="E41:E44"/>
-    <mergeCell ref="F41:F44"/>
-    <mergeCell ref="B45:B55"/>
-    <mergeCell ref="C45:C55"/>
-    <mergeCell ref="D45:D55"/>
-    <mergeCell ref="E45:E55"/>
-    <mergeCell ref="F45:F55"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="C5:C12"/>
-    <mergeCell ref="D5:D12"/>
-    <mergeCell ref="E5:E12"/>
-    <mergeCell ref="F5:F12"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4089,147 +4640,455 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:AP8"/>
+  <dimension ref="A1:AF23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:M8"/>
+    <sheetView showRuler="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="20"/>
-    <col min="2" max="13" width="5" style="20" customWidth="1"/>
-    <col min="14" max="45" width="4.33203125" style="20" customWidth="1"/>
-    <col min="46" max="16384" width="10.83203125" style="20"/>
+    <col min="1" max="1" width="10.83203125" style="3"/>
+    <col min="2" max="13" width="5" style="3" customWidth="1"/>
+    <col min="14" max="21" width="4.33203125" style="3" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" style="3" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" style="3" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" style="3" customWidth="1"/>
+    <col min="27" max="27" width="7" style="3" customWidth="1"/>
+    <col min="28" max="45" width="4.33203125" style="3" customWidth="1"/>
+    <col min="46" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:13">
-      <c r="A4" s="21" t="s">
+    <row r="1" spans="1:32">
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22" t="s">
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22" t="s">
+      <c r="K4" s="33"/>
+      <c r="L4" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="21" t="s">
+      <c r="M4" s="33"/>
+      <c r="W4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="X4" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22" t="s">
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="31"/>
-      <c r="B6" s="22" t="s">
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="W5" s="33" t="s">
+        <v>365</v>
+      </c>
+      <c r="X5" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y5" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
+      <c r="Z5" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="27"/>
+      <c r="B6" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22" t="s">
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="32"/>
-      <c r="B7" s="21" t="s">
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB6" s="54"/>
+      <c r="AC6" s="54"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="28"/>
+      <c r="B7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22" t="s">
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="33"/>
-      <c r="B8" s="21" t="s">
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="W7" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z7" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="54"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="29"/>
+      <c r="B8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="W9" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z9" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AF9" s="54"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="54"/>
+      <c r="AC10" s="54"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AF10" s="54"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="W11" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="X11" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y11" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="54"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AF12" s="54"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="W13" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AF13" s="54"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="W14" s="33"/>
+      <c r="X14" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y14" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z14" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AF14" s="54"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="W15" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+    </row>
+    <row r="17" spans="5:32">
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+    </row>
+    <row r="20" spans="5:32">
+      <c r="E20" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+    </row>
+    <row r="21" spans="5:32">
+      <c r="I21" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="33"/>
+    </row>
+    <row r="23" spans="5:32">
+      <c r="G23" s="51"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="45">
+    <mergeCell ref="Z11:Z13"/>
+    <mergeCell ref="Y14:Y16"/>
+    <mergeCell ref="Z14:Z16"/>
+    <mergeCell ref="AA7:AA16"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="W7:W8"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="W11:W12"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="X5:X7"/>
+    <mergeCell ref="X8:X10"/>
+    <mergeCell ref="X11:X13"/>
+    <mergeCell ref="X14:X16"/>
+    <mergeCell ref="Y7:Y8"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="Y11:Y13"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:G5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="D8:M8"/>
     <mergeCell ref="B6:C6"/>
@@ -4241,19 +5100,10 @@
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="K7:M7"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4264,399 +5114,820 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q13"/>
+  <dimension ref="A3:Q34"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="N28" sqref="N28:N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="3" spans="1:17">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="5">
         <v>0</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="5">
         <v>2</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="5">
         <v>4</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="5">
         <v>5</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="5">
         <v>6</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="5">
         <v>7</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="5">
         <v>8</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="5">
         <v>9</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="5">
         <v>10</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="5">
         <v>11</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="5">
         <v>12</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="5">
         <v>13</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="5">
         <v>14</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="23" t="s">
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24" t="s">
+      <c r="K5" s="34"/>
+      <c r="L5" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="34"/>
+      <c r="N5" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="5">
         <v>16</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="5">
         <v>17</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="5">
         <v>18</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="5">
         <v>19</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="5">
         <v>20</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="5">
         <v>21</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="5">
         <v>22</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="5">
         <v>23</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="5">
         <v>24</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="5">
         <v>25</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="5">
         <v>26</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="5">
         <v>27</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="5">
         <v>28</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="5">
         <v>29</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="5">
         <v>30</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="5">
         <v>3</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="5">
         <v>4</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="5">
         <v>6</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="5">
         <v>7</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="5">
         <v>8</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="5">
         <v>9</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="5">
         <v>10</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="5">
         <v>11</v>
       </c>
-      <c r="N8" s="23">
+      <c r="N8" s="5">
         <v>12</v>
       </c>
-      <c r="O8" s="23">
+      <c r="O8" s="5">
         <v>13</v>
       </c>
-      <c r="P8" s="23">
+      <c r="P8" s="5">
         <v>14</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="5">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24" t="s">
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24" t="s">
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="24"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="5">
         <v>0</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="5">
         <v>1</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="5">
         <v>2</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="5">
         <v>3</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="5">
         <v>4</v>
       </c>
-      <c r="G12" s="23">
+      <c r="G12" s="5">
         <v>5</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="5">
         <v>6</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="5">
         <v>7</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="27"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="37"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="23" t="s">
+      <c r="G13" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="30"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="40"/>
+    </row>
+    <row r="18" spans="7:17">
+      <c r="G18" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K18" s="34"/>
+      <c r="L18" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="7:17">
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="J19" s="5">
+        <v>16</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="O19" s="34"/>
+      <c r="P19" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="7:17">
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="5">
+        <v>17</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="7:17">
+      <c r="G21" s="5">
+        <v>2</v>
+      </c>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="5">
+        <v>18</v>
+      </c>
+      <c r="K21" s="34"/>
+      <c r="L21" s="5">
+        <v>2</v>
+      </c>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="7:17">
+      <c r="G22" s="5">
+        <v>3</v>
+      </c>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="5">
+        <v>19</v>
+      </c>
+      <c r="K22" s="34"/>
+      <c r="L22" s="5">
+        <v>3</v>
+      </c>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="7:17">
+      <c r="G23" s="5">
+        <v>4</v>
+      </c>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="5">
+        <v>20</v>
+      </c>
+      <c r="K23" s="34"/>
+      <c r="L23" s="5">
+        <v>4</v>
+      </c>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="7:17">
+      <c r="G24" s="5">
+        <v>5</v>
+      </c>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="5">
+        <v>21</v>
+      </c>
+      <c r="K24" s="34"/>
+      <c r="L24" s="5">
+        <v>5</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="O24" s="34"/>
+      <c r="P24" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="7:17">
+      <c r="G25" s="5">
+        <v>6</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="J25" s="5">
+        <v>22</v>
+      </c>
+      <c r="K25" s="34"/>
+      <c r="L25" s="5">
+        <v>6</v>
+      </c>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q25" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="7:17">
+      <c r="G26" s="5">
+        <v>7</v>
+      </c>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="5">
+        <v>23</v>
+      </c>
+      <c r="K26" s="34"/>
+      <c r="L26" s="5">
+        <v>7</v>
+      </c>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="34"/>
+    </row>
+    <row r="27" spans="7:17">
+      <c r="G27" s="5">
+        <v>8</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="J27" s="5">
+        <v>24</v>
+      </c>
+      <c r="K27" s="34"/>
+      <c r="L27" s="5">
+        <v>8</v>
+      </c>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+    </row>
+    <row r="28" spans="7:17">
+      <c r="G28" s="5">
+        <v>9</v>
+      </c>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="5">
+        <v>25</v>
+      </c>
+      <c r="K28" s="34"/>
+      <c r="L28" s="5">
+        <v>9</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+    </row>
+    <row r="29" spans="7:17">
+      <c r="G29" s="5">
+        <v>10</v>
+      </c>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="J29" s="5">
+        <v>26</v>
+      </c>
+      <c r="K29" s="34"/>
+      <c r="L29" s="5">
+        <v>10</v>
+      </c>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+    </row>
+    <row r="30" spans="7:17">
+      <c r="G30" s="5">
+        <v>11</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="J30" s="5">
+        <v>27</v>
+      </c>
+      <c r="K30" s="34"/>
+      <c r="L30" s="5">
+        <v>11</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
+    </row>
+    <row r="31" spans="7:17">
+      <c r="G31" s="5">
+        <v>12</v>
+      </c>
+      <c r="H31" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="J31" s="5">
+        <v>28</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="5">
+        <v>12</v>
+      </c>
+      <c r="M31" s="34"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
+    </row>
+    <row r="32" spans="7:17">
+      <c r="G32" s="5">
+        <v>13</v>
+      </c>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="5">
+        <v>29</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="L32" s="5">
+        <v>13</v>
+      </c>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+    </row>
+    <row r="33" spans="7:17">
+      <c r="G33" s="5">
+        <v>14</v>
+      </c>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="5">
+        <v>30</v>
+      </c>
+      <c r="K33" s="34"/>
+      <c r="L33" s="5">
+        <v>14</v>
+      </c>
+      <c r="M33" s="34"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
+    </row>
+    <row r="34" spans="7:17">
+      <c r="G34" s="5">
+        <v>15</v>
+      </c>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="5">
+        <v>31</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="L34" s="5">
+        <v>15</v>
+      </c>
+      <c r="M34" s="34"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="36">
+    <mergeCell ref="K18:K34"/>
+    <mergeCell ref="O18:O34"/>
+    <mergeCell ref="P27:Q34"/>
+    <mergeCell ref="Q25:Q26"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M29"/>
+    <mergeCell ref="M30:M34"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="N28:N34"/>
+    <mergeCell ref="H19:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H31:H34"/>
+    <mergeCell ref="I19:I24"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:Q5"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A7:Q7"/>
     <mergeCell ref="A11:Q11"/>
@@ -4667,14 +5938,6 @@
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="G10:J10"/>
     <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4700,108 +5963,108 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="5" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="5">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="5">
         <v>4</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="5">
         <v>4</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="5">
         <v>4</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="5">
         <v>4</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="5">
         <v>4</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="5" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4823,7 +6086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:L146"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A106" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
@@ -4840,2420 +6103,2333 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12">
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="23" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="J4" s="23">
+      <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="L4" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:12">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="23" t="s">
+      <c r="F5" s="25"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="5">
         <v>1</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="23" t="s">
+      <c r="F6" s="25"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="5">
         <v>2</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="23" t="s">
+      <c r="F7" s="25"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="5">
         <v>3</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="8" spans="2:12">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="2">
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="23" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="5">
         <v>4</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="L8" s="23" t="s">
+      <c r="L8" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:12">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="2">
         <v>5</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="23" t="s">
+      <c r="F9" s="25"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="L9" s="23" t="s">
+      <c r="L9" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="10" spans="2:12">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3">
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="23" t="s">
+      <c r="F10" s="25"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="5">
         <v>6</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L10" s="23" t="s">
+      <c r="L10" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="11" spans="2:12">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="2">
         <v>7</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="23" t="s">
+      <c r="F11" s="25"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="5">
         <v>7</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="L11" s="23" t="s">
+      <c r="L11" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" spans="2:12">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="2">
         <v>8</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23">
+      <c r="F12" s="25"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
         <v>8</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23" t="s">
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="2">
         <v>9</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23">
+      <c r="F13" s="25"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
         <v>9</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23" t="s">
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23">
+      <c r="F14" s="25"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
         <v>10</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23" t="s">
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="2">
         <v>11</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23">
+      <c r="F15" s="25"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
         <v>11</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23" t="s">
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="3">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="2">
         <v>12</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23">
+      <c r="F16" s="25"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
         <v>12</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23" t="s">
+      <c r="K16" s="5"/>
+      <c r="L16" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="2">
         <v>13</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23">
+      <c r="F17" s="25"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
         <v>13</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23" t="s">
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="2">
         <v>14</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23">
+      <c r="F18" s="25"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
         <v>14</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23" t="s">
+      <c r="K18" s="5"/>
+      <c r="L18" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="2">
         <v>15</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23">
+      <c r="F19" s="25"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5">
         <v>15</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23" t="s">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="20" spans="2:12">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>16</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="25" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="21" spans="2:12">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="2">
         <v>17</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="H21" s="6" t="s">
+      <c r="F21" s="25"/>
+      <c r="H21" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23" t="s">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="L21" s="23" t="s">
+      <c r="L21" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="22" spans="2:12">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>18</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="23" t="s">
+      <c r="H22" s="23"/>
+      <c r="I22" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23" t="s">
+      <c r="J22" s="5"/>
+      <c r="K22" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:12">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3">
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="2">
         <v>19</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="23" t="s">
+      <c r="F23" s="25"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23" t="s">
+      <c r="J23" s="5"/>
+      <c r="K23" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:12">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>20</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="23" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23" t="s">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="2:12">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="2">
         <v>21</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="23" t="s">
+      <c r="F25" s="25"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23" t="s">
+      <c r="J25" s="5"/>
+      <c r="K25" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="L25" s="23">
+      <c r="L25" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:12">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="3">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="2">
         <v>22</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="23" t="s">
+      <c r="F26" s="25"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23" t="s">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="L26" s="23">
+      <c r="L26" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="2:12">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="2">
         <v>23</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="23" t="s">
+      <c r="F27" s="25"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23" t="s">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="L27" s="23" t="s">
+      <c r="L27" s="5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="28" spans="2:12">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>24</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="23" t="s">
+      <c r="H28" s="23"/>
+      <c r="I28" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23" t="s">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="L28" s="23" t="s">
+      <c r="L28" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="29" spans="2:12">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="3">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="2">
         <v>25</v>
       </c>
-      <c r="F29" s="4"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="23" t="s">
+      <c r="F29" s="25"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23" t="s">
+      <c r="J29" s="5"/>
+      <c r="K29" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L29" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="30" spans="2:12">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="3">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="2">
         <v>26</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="25"/>
     </row>
     <row r="31" spans="2:12">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="3">
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="2">
         <v>27</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="H31" s="6" t="s">
+      <c r="F31" s="25"/>
+      <c r="H31" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23" t="s">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="L31" s="23" t="s">
+      <c r="L31" s="5" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="32" spans="2:12">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <v>28</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="23" t="s">
+      <c r="H32" s="23"/>
+      <c r="I32" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23" t="s">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:12">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="3">
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="2">
         <v>29</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="23" t="s">
+      <c r="F33" s="25"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23" t="s">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="L33" s="23">
+      <c r="L33" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:12">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="3">
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="2">
         <v>30</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="23" t="s">
+      <c r="F34" s="25"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23" t="s">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L34" s="23">
+      <c r="L34" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="2:12">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="3">
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="2">
         <v>31</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="23" t="s">
+      <c r="F35" s="25"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23" t="s">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="L35" s="23">
+      <c r="L35" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="2:12">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <v>32</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="23" t="s">
+      <c r="H36" s="23"/>
+      <c r="I36" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23" t="s">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="2:12">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3">
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="2">
         <v>33</v>
       </c>
-      <c r="F37" s="4"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="23" t="s">
+      <c r="F37" s="25"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23" t="s">
+      <c r="J37" s="5"/>
+      <c r="K37" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="L37" s="23">
+      <c r="L37" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3">
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="2">
         <v>34</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="23" t="s">
+      <c r="F38" s="25"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23" t="s">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="L38" s="23">
+      <c r="L38" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="2:12">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="3">
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="2">
         <v>35</v>
       </c>
-      <c r="F39" s="4"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="23" t="s">
+      <c r="F39" s="25"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23" t="s">
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="L39" s="23">
+      <c r="L39" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="2:12">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="25"/>
+      <c r="C40" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <v>36</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="23" t="s">
+      <c r="H40" s="23"/>
+      <c r="I40" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23" t="s">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="L40" s="23" t="s">
+      <c r="L40" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="41" spans="2:12">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="2">
         <v>37</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="25"/>
     </row>
     <row r="42" spans="2:12">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3">
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="2">
         <v>38</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="25"/>
     </row>
     <row r="43" spans="2:12">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3">
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="2">
         <v>39</v>
       </c>
-      <c r="F43" s="4"/>
+      <c r="F43" s="25"/>
     </row>
     <row r="44" spans="2:12">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
+      <c r="B44" s="25"/>
+      <c r="C44" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <v>40</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="45" spans="2:12">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="3">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="2">
         <v>41</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="25"/>
     </row>
     <row r="46" spans="2:12">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4" t="s">
+      <c r="B46" s="25"/>
+      <c r="C46" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <v>42</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="25" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="47" spans="2:12">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3">
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="2">
         <v>43</v>
       </c>
-      <c r="F47" s="4"/>
+      <c r="F47" s="25"/>
     </row>
     <row r="48" spans="2:12">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
+      <c r="B48" s="25"/>
+      <c r="C48" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <v>44</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="25" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="49" spans="2:12">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3">
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="2">
         <v>45</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="25"/>
     </row>
     <row r="50" spans="2:12">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
+      <c r="B50" s="25"/>
+      <c r="C50" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <v>46</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="25" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:12">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3">
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="2">
         <v>47</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="25"/>
     </row>
     <row r="52" spans="2:12">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
+      <c r="B52" s="25"/>
+      <c r="C52" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <v>48</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="25" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="53" spans="2:12">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="3">
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="2">
         <v>49</v>
       </c>
-      <c r="F53" s="4"/>
+      <c r="F53" s="25"/>
     </row>
     <row r="54" spans="2:12">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4" t="s">
+      <c r="B54" s="25"/>
+      <c r="C54" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <v>50</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="25" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="55" spans="2:12">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="3">
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="2">
         <v>51</v>
       </c>
-      <c r="F55" s="4"/>
+      <c r="F55" s="25"/>
     </row>
     <row r="56" spans="2:12">
-      <c r="F56" s="37"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="62" spans="2:12" ht="17" customHeight="1">
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="E62" s="23">
+      <c r="E62" s="5">
         <v>0</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="34" t="s">
         <v>270</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="I62" s="4" t="s">
+      <c r="I62" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="J62" s="4"/>
-      <c r="K62" s="46" t="s">
+      <c r="J62" s="25"/>
+      <c r="K62" s="43" t="s">
         <v>288</v>
       </c>
-      <c r="L62" s="39">
+      <c r="L62" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" customHeight="1">
-      <c r="B63" s="6"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="23">
+      <c r="B63" s="23"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="5">
         <v>1</v>
       </c>
-      <c r="F63" s="24"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="46"/>
-      <c r="L63" s="41"/>
+      <c r="F63" s="34"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="46"/>
     </row>
     <row r="64" spans="2:12" ht="15" customHeight="1">
-      <c r="B64" s="6"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="23">
+      <c r="B64" s="23"/>
+      <c r="C64" s="34"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="5">
         <v>2</v>
       </c>
-      <c r="F64" s="24"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="4" t="s">
+      <c r="F64" s="34"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="J64" s="4"/>
-      <c r="K64" s="46" t="s">
+      <c r="J64" s="25"/>
+      <c r="K64" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="L64" s="39">
+      <c r="L64" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:12" ht="17" customHeight="1">
-      <c r="B65" s="6"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="23">
+      <c r="B65" s="23"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="5">
         <v>3</v>
       </c>
-      <c r="F65" s="24"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="46"/>
-      <c r="L65" s="40"/>
+      <c r="F65" s="34"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="47"/>
     </row>
     <row r="66" spans="2:12" ht="15" customHeight="1">
-      <c r="B66" s="6"/>
-      <c r="C66" s="24" t="s">
+      <c r="B66" s="23"/>
+      <c r="C66" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="34" t="s">
         <v>262</v>
       </c>
-      <c r="E66" s="23">
+      <c r="E66" s="5">
         <v>4</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="34" t="s">
         <v>271</v>
       </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="46"/>
-      <c r="L66" s="40"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="43"/>
+      <c r="L66" s="47"/>
     </row>
     <row r="67" spans="2:12" ht="15" customHeight="1">
-      <c r="B67" s="6"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="23">
+      <c r="B67" s="23"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="5">
         <v>5</v>
       </c>
-      <c r="F67" s="24"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="40"/>
+      <c r="F67" s="34"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="47"/>
     </row>
     <row r="68" spans="2:12" ht="15" customHeight="1">
-      <c r="B68" s="6"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="23">
+      <c r="B68" s="23"/>
+      <c r="C68" s="34"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="5">
         <v>6</v>
       </c>
-      <c r="F68" s="24"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="40"/>
+      <c r="F68" s="34"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="47"/>
     </row>
     <row r="69" spans="2:12" ht="15" customHeight="1">
-      <c r="B69" s="6"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="23">
+      <c r="B69" s="23"/>
+      <c r="C69" s="34"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="5">
         <v>7</v>
       </c>
-      <c r="F69" s="24"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="40"/>
+      <c r="F69" s="34"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="47"/>
     </row>
     <row r="70" spans="2:12">
-      <c r="B70" s="6"/>
-      <c r="C70" s="24" t="s">
+      <c r="B70" s="23"/>
+      <c r="C70" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="E70" s="23">
+      <c r="E70" s="5">
         <v>8</v>
       </c>
-      <c r="F70" s="24" t="s">
+      <c r="F70" s="34" t="s">
         <v>272</v>
       </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="41"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="46"/>
     </row>
     <row r="71" spans="2:12" ht="17">
-      <c r="B71" s="6"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="23">
+      <c r="B71" s="23"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="5">
         <v>9</v>
       </c>
-      <c r="F71" s="24"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="4" t="s">
+      <c r="F71" s="34"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="J71" s="4"/>
-      <c r="K71" s="42" t="s">
+      <c r="J71" s="25"/>
+      <c r="K71" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="L71" s="23">
+      <c r="L71" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="2:12" ht="17" customHeight="1">
-      <c r="B72" s="6"/>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="23">
+      <c r="B72" s="23"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="5">
         <v>10</v>
       </c>
-      <c r="F72" s="24"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="4" t="s">
+      <c r="F72" s="34"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="25" t="s">
         <v>281</v>
       </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="46" t="s">
+      <c r="J72" s="25"/>
+      <c r="K72" s="43" t="s">
         <v>295</v>
       </c>
-      <c r="L72" s="39">
+      <c r="L72" s="45">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" customHeight="1">
-      <c r="B73" s="6"/>
-      <c r="C73" s="24"/>
-      <c r="D73" s="24"/>
-      <c r="E73" s="23">
+      <c r="B73" s="23"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="5">
         <v>11</v>
       </c>
-      <c r="F73" s="24"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="46"/>
-      <c r="L73" s="40"/>
+      <c r="F73" s="34"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="43"/>
+      <c r="L73" s="47"/>
     </row>
     <row r="74" spans="2:12" ht="15" customHeight="1">
-      <c r="B74" s="6"/>
-      <c r="C74" s="24" t="s">
+      <c r="B74" s="23"/>
+      <c r="C74" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="5">
         <v>12</v>
       </c>
-      <c r="F74" s="24" t="s">
+      <c r="F74" s="34" t="s">
         <v>273</v>
       </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="46"/>
-      <c r="L74" s="40"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="43"/>
+      <c r="L74" s="47"/>
     </row>
     <row r="75" spans="2:12" ht="15" customHeight="1">
-      <c r="B75" s="6"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="23">
+      <c r="B75" s="23"/>
+      <c r="C75" s="34"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="5">
         <v>13</v>
       </c>
-      <c r="F75" s="24"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="46"/>
-      <c r="L75" s="40"/>
+      <c r="F75" s="34"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="43"/>
+      <c r="L75" s="47"/>
     </row>
     <row r="76" spans="2:12" ht="15" customHeight="1">
-      <c r="B76" s="6"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="23">
+      <c r="B76" s="23"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="5">
         <v>14</v>
       </c>
-      <c r="F76" s="24"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="40"/>
+      <c r="F76" s="34"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
+      <c r="K76" s="43"/>
+      <c r="L76" s="47"/>
     </row>
     <row r="77" spans="2:12" ht="15" customHeight="1">
-      <c r="B77" s="6"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="23">
+      <c r="B77" s="23"/>
+      <c r="C77" s="34"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="5">
         <v>15</v>
       </c>
-      <c r="F77" s="24"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="46"/>
-      <c r="L77" s="40"/>
+      <c r="F77" s="34"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="43"/>
+      <c r="L77" s="47"/>
     </row>
     <row r="78" spans="2:12">
-      <c r="B78" s="6"/>
-      <c r="C78" s="24" t="s">
+      <c r="B78" s="23"/>
+      <c r="C78" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="D78" s="24" t="s">
+      <c r="D78" s="34" t="s">
         <v>265</v>
       </c>
-      <c r="E78" s="23">
+      <c r="E78" s="5">
         <v>16</v>
       </c>
-      <c r="F78" s="24" t="s">
+      <c r="F78" s="34" t="s">
         <v>277</v>
       </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="46"/>
-      <c r="L78" s="41"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
+      <c r="K78" s="43"/>
+      <c r="L78" s="46"/>
     </row>
     <row r="79" spans="2:12" ht="17">
-      <c r="B79" s="6"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="24"/>
-      <c r="E79" s="23">
+      <c r="B79" s="23"/>
+      <c r="C79" s="34"/>
+      <c r="D79" s="34"/>
+      <c r="E79" s="5">
         <v>17</v>
       </c>
-      <c r="F79" s="24"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="4" t="s">
+      <c r="F79" s="34"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="J79" s="4"/>
-      <c r="K79" s="42" t="s">
+      <c r="J79" s="25"/>
+      <c r="K79" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="L79" s="23">
+      <c r="L79" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="2:12" ht="17" customHeight="1">
-      <c r="B80" s="6"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="23">
+      <c r="B80" s="23"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="5">
         <v>18</v>
       </c>
-      <c r="F80" s="24"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="4" t="s">
+      <c r="F80" s="34"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="J80" s="4"/>
-      <c r="K80" s="46" t="s">
+      <c r="J80" s="25"/>
+      <c r="K80" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="L80" s="39">
+      <c r="L80" s="45">
         <v>5</v>
       </c>
     </row>
     <row r="81" spans="2:12">
-      <c r="B81" s="6"/>
-      <c r="C81" s="24"/>
-      <c r="D81" s="24"/>
-      <c r="E81" s="23">
+      <c r="B81" s="23"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="5">
         <v>19</v>
       </c>
-      <c r="F81" s="24"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="4"/>
-      <c r="J81" s="4"/>
-      <c r="K81" s="46"/>
-      <c r="L81" s="41"/>
+      <c r="F81" s="34"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="43"/>
+      <c r="L81" s="46"/>
     </row>
     <row r="82" spans="2:12" ht="17" customHeight="1">
-      <c r="B82" s="6"/>
-      <c r="C82" s="24" t="s">
+      <c r="B82" s="23"/>
+      <c r="C82" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="D82" s="24" t="s">
+      <c r="D82" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="E82" s="23">
+      <c r="E82" s="5">
         <v>20</v>
       </c>
-      <c r="F82" s="24" t="s">
+      <c r="F82" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="4" t="s">
+      <c r="H82" s="23"/>
+      <c r="I82" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="J82" s="4"/>
-      <c r="K82" s="46" t="s">
+      <c r="J82" s="25"/>
+      <c r="K82" s="43" t="s">
         <v>293</v>
       </c>
-      <c r="L82" s="39">
+      <c r="L82" s="45">
         <v>6</v>
       </c>
     </row>
     <row r="83" spans="2:12" ht="15" customHeight="1">
-      <c r="B83" s="6"/>
-      <c r="C83" s="24"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="23">
+      <c r="B83" s="23"/>
+      <c r="C83" s="34"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="5">
         <v>21</v>
       </c>
-      <c r="F83" s="24"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
-      <c r="K83" s="46"/>
-      <c r="L83" s="40"/>
+      <c r="F83" s="34"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
+      <c r="K83" s="43"/>
+      <c r="L83" s="47"/>
     </row>
     <row r="84" spans="2:12" ht="15" customHeight="1">
-      <c r="B84" s="6"/>
-      <c r="C84" s="24"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="23">
+      <c r="B84" s="23"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="5">
         <v>22</v>
       </c>
-      <c r="F84" s="24"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="46"/>
-      <c r="L84" s="40"/>
+      <c r="F84" s="34"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
+      <c r="K84" s="43"/>
+      <c r="L84" s="47"/>
     </row>
     <row r="85" spans="2:12" ht="15" customHeight="1">
-      <c r="B85" s="6"/>
-      <c r="C85" s="24"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="23">
+      <c r="B85" s="23"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="5">
         <v>23</v>
       </c>
-      <c r="F85" s="24"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="46"/>
-      <c r="L85" s="40"/>
+      <c r="F85" s="34"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="43"/>
+      <c r="L85" s="47"/>
     </row>
     <row r="86" spans="2:12" ht="15" customHeight="1">
-      <c r="B86" s="6"/>
-      <c r="C86" s="24" t="s">
+      <c r="B86" s="23"/>
+      <c r="C86" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="D86" s="24" t="s">
+      <c r="D86" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="E86" s="23">
+      <c r="E86" s="5">
         <v>24</v>
       </c>
-      <c r="F86" s="24" t="s">
+      <c r="F86" s="34" t="s">
         <v>275</v>
       </c>
-      <c r="H86" s="6"/>
-      <c r="I86" s="4"/>
-      <c r="J86" s="4"/>
-      <c r="K86" s="46"/>
-      <c r="L86" s="40"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="43"/>
+      <c r="L86" s="47"/>
     </row>
     <row r="87" spans="2:12" ht="15" customHeight="1">
-      <c r="B87" s="6"/>
-      <c r="C87" s="24"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="23">
+      <c r="B87" s="23"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="5">
         <v>25</v>
       </c>
-      <c r="F87" s="24"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="46"/>
-      <c r="L87" s="40"/>
+      <c r="F87" s="34"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="43"/>
+      <c r="L87" s="47"/>
     </row>
     <row r="88" spans="2:12">
-      <c r="B88" s="6"/>
-      <c r="C88" s="24"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="23">
+      <c r="B88" s="23"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="5">
         <v>26</v>
       </c>
-      <c r="F88" s="24"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="46"/>
-      <c r="L88" s="41"/>
+      <c r="F88" s="34"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="43"/>
+      <c r="L88" s="46"/>
     </row>
     <row r="89" spans="2:12" ht="17">
-      <c r="B89" s="6"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="23">
+      <c r="B89" s="23"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="5">
         <v>27</v>
       </c>
-      <c r="F89" s="24"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="23" t="s">
+      <c r="F89" s="34"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="J89" s="23"/>
-      <c r="K89" s="42" t="s">
+      <c r="J89" s="5"/>
+      <c r="K89" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="L89" s="23" t="s">
+      <c r="L89" s="5" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="90" spans="2:12">
-      <c r="B90" s="6"/>
-      <c r="C90" s="24" t="s">
+      <c r="B90" s="23"/>
+      <c r="C90" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="D90" s="24" t="s">
+      <c r="D90" s="34" t="s">
         <v>268</v>
       </c>
-      <c r="E90" s="23">
+      <c r="E90" s="5">
         <v>28</v>
       </c>
-      <c r="F90" s="24" t="s">
+      <c r="F90" s="34" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="91" spans="2:12">
-      <c r="B91" s="6"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="23">
+      <c r="B91" s="23"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="5">
         <v>29</v>
       </c>
-      <c r="F91" s="24"/>
+      <c r="F91" s="34"/>
     </row>
     <row r="92" spans="2:12">
-      <c r="B92" s="6"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="23">
+      <c r="B92" s="23"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="5">
         <v>30</v>
       </c>
-      <c r="F92" s="24"/>
+      <c r="F92" s="34"/>
     </row>
     <row r="93" spans="2:12">
-      <c r="B93" s="6"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="23">
+      <c r="B93" s="23"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="5">
         <v>31</v>
       </c>
-      <c r="F93" s="24"/>
+      <c r="F93" s="34"/>
     </row>
     <row r="94" spans="2:12">
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
     </row>
     <row r="95" spans="2:12">
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
     </row>
     <row r="96" spans="2:12">
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" spans="2:12">
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="100" spans="2:12" ht="17" customHeight="1">
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="C100" s="43" t="s">
+      <c r="C100" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D100" s="24" t="s">
+      <c r="D100" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="E100" s="23">
+      <c r="E100" s="5">
         <v>0</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="I100" s="24" t="s">
+      <c r="I100" s="34" t="s">
         <v>332</v>
       </c>
-      <c r="J100" s="24"/>
-      <c r="K100" s="46" t="s">
+      <c r="J100" s="34"/>
+      <c r="K100" s="43" t="s">
         <v>317</v>
       </c>
-      <c r="L100" s="24">
+      <c r="L100" s="34">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="2:12" ht="17" customHeight="1">
-      <c r="B101" s="6"/>
-      <c r="C101" s="43"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="23">
+      <c r="B101" s="23"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="5">
         <v>1</v>
       </c>
-      <c r="F101" s="5"/>
-      <c r="H101" s="6"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="46"/>
-      <c r="L101" s="24"/>
+      <c r="F101" s="26"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
+      <c r="K101" s="43"/>
+      <c r="L101" s="34"/>
     </row>
     <row r="102" spans="2:12" ht="17" customHeight="1">
-      <c r="B102" s="6"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="23">
+      <c r="B102" s="23"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="5">
         <v>2</v>
       </c>
-      <c r="F102" s="5"/>
-      <c r="H102" s="6"/>
-      <c r="I102" s="24" t="s">
+      <c r="F102" s="26"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="34" t="s">
         <v>333</v>
       </c>
-      <c r="J102" s="24"/>
-      <c r="K102" s="46" t="s">
+      <c r="J102" s="34"/>
+      <c r="K102" s="43" t="s">
         <v>318</v>
       </c>
-      <c r="L102" s="24">
+      <c r="L102" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="2:12" ht="15" customHeight="1">
-      <c r="B103" s="6"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="23">
+      <c r="B103" s="23"/>
+      <c r="C103" s="49"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="5">
         <v>3</v>
       </c>
-      <c r="F103" s="5"/>
-      <c r="H103" s="6"/>
-      <c r="I103" s="24"/>
-      <c r="J103" s="24"/>
-      <c r="K103" s="46"/>
-      <c r="L103" s="24"/>
+      <c r="F103" s="26"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
+      <c r="K103" s="43"/>
+      <c r="L103" s="34"/>
     </row>
     <row r="104" spans="2:12" ht="15" customHeight="1">
-      <c r="B104" s="6"/>
-      <c r="C104" s="43" t="s">
+      <c r="B104" s="23"/>
+      <c r="C104" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D104" s="24" t="s">
+      <c r="D104" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="E104" s="23">
+      <c r="E104" s="5">
         <v>4</v>
       </c>
-      <c r="F104" s="44" t="s">
+      <c r="F104" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="H104" s="6"/>
-      <c r="I104" s="24" t="s">
+      <c r="H104" s="23"/>
+      <c r="I104" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="J104" s="24"/>
-      <c r="K104" s="46" t="s">
+      <c r="J104" s="34"/>
+      <c r="K104" s="43" t="s">
         <v>319</v>
       </c>
-      <c r="L104" s="24">
+      <c r="L104" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="105" spans="2:12" ht="15" customHeight="1">
-      <c r="B105" s="6"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="24"/>
-      <c r="E105" s="23">
+      <c r="B105" s="23"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="34"/>
+      <c r="E105" s="5">
         <v>5</v>
       </c>
-      <c r="F105" s="44"/>
-      <c r="H105" s="6"/>
-      <c r="I105" s="24"/>
-      <c r="J105" s="24"/>
-      <c r="K105" s="46"/>
-      <c r="L105" s="24"/>
+      <c r="F105" s="50"/>
+      <c r="H105" s="23"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
+      <c r="K105" s="43"/>
+      <c r="L105" s="34"/>
     </row>
     <row r="106" spans="2:12" ht="15" customHeight="1">
-      <c r="B106" s="6"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="23">
+      <c r="B106" s="23"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="5">
         <v>6</v>
       </c>
-      <c r="F106" s="44"/>
-      <c r="H106" s="6"/>
-      <c r="I106" s="24"/>
-      <c r="J106" s="24"/>
-      <c r="K106" s="46"/>
-      <c r="L106" s="24"/>
+      <c r="F106" s="50"/>
+      <c r="H106" s="23"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
+      <c r="K106" s="43"/>
+      <c r="L106" s="34"/>
     </row>
     <row r="107" spans="2:12" ht="15" customHeight="1">
-      <c r="B107" s="6"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="24"/>
-      <c r="E107" s="23">
+      <c r="B107" s="23"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="5">
         <v>7</v>
       </c>
-      <c r="F107" s="44"/>
-      <c r="H107" s="6"/>
-      <c r="I107" s="24"/>
-      <c r="J107" s="24"/>
-      <c r="K107" s="46"/>
-      <c r="L107" s="24"/>
+      <c r="F107" s="50"/>
+      <c r="H107" s="23"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
+      <c r="K107" s="43"/>
+      <c r="L107" s="34"/>
     </row>
     <row r="108" spans="2:12">
-      <c r="B108" s="6"/>
-      <c r="C108" s="43" t="s">
+      <c r="B108" s="23"/>
+      <c r="C108" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D108" s="24" t="s">
+      <c r="D108" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="E108" s="23">
+      <c r="E108" s="5">
         <v>8</v>
       </c>
-      <c r="F108" s="44" t="s">
+      <c r="F108" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="H108" s="6"/>
-      <c r="I108" s="24"/>
-      <c r="J108" s="24"/>
-      <c r="K108" s="46"/>
-      <c r="L108" s="24"/>
+      <c r="H108" s="23"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
+      <c r="K108" s="43"/>
+      <c r="L108" s="34"/>
     </row>
     <row r="109" spans="2:12">
-      <c r="B109" s="6"/>
-      <c r="C109" s="43"/>
-      <c r="D109" s="24"/>
-      <c r="E109" s="23">
+      <c r="B109" s="23"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="5">
         <v>9</v>
       </c>
-      <c r="F109" s="44"/>
-      <c r="H109" s="6"/>
-      <c r="I109" s="24"/>
-      <c r="J109" s="24"/>
-      <c r="K109" s="46"/>
-      <c r="L109" s="24"/>
+      <c r="F109" s="50"/>
+      <c r="H109" s="23"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
+      <c r="K109" s="43"/>
+      <c r="L109" s="34"/>
     </row>
     <row r="110" spans="2:12" ht="17">
-      <c r="B110" s="6"/>
-      <c r="C110" s="43"/>
-      <c r="D110" s="24"/>
-      <c r="E110" s="23">
+      <c r="B110" s="23"/>
+      <c r="C110" s="49"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="5">
         <v>10</v>
       </c>
-      <c r="F110" s="44"/>
-      <c r="H110" s="6"/>
-      <c r="I110" s="24" t="s">
+      <c r="F110" s="50"/>
+      <c r="H110" s="23"/>
+      <c r="I110" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="J110" s="24"/>
-      <c r="K110" s="42" t="s">
+      <c r="J110" s="34"/>
+      <c r="K110" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="L110" s="23">
+      <c r="L110" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="2:12" ht="17" customHeight="1">
-      <c r="B111" s="6"/>
-      <c r="C111" s="43"/>
-      <c r="D111" s="24"/>
-      <c r="E111" s="23">
+      <c r="B111" s="23"/>
+      <c r="C111" s="49"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="5">
         <v>11</v>
       </c>
-      <c r="F111" s="44"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="24" t="s">
+      <c r="F111" s="50"/>
+      <c r="H111" s="23"/>
+      <c r="I111" s="34" t="s">
         <v>336</v>
       </c>
-      <c r="J111" s="24"/>
-      <c r="K111" s="46" t="s">
+      <c r="J111" s="34"/>
+      <c r="K111" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="L111" s="24">
+      <c r="L111" s="34">
         <v>4</v>
       </c>
     </row>
     <row r="112" spans="2:12" ht="16" customHeight="1">
-      <c r="B112" s="6"/>
-      <c r="C112" s="24" t="s">
+      <c r="B112" s="23"/>
+      <c r="C112" s="34" t="s">
         <v>259</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D112" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="E112" s="23">
+      <c r="E112" s="5">
         <v>12</v>
       </c>
-      <c r="F112" s="45" t="s">
+      <c r="F112" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="H112" s="6"/>
-      <c r="I112" s="24"/>
-      <c r="J112" s="24"/>
-      <c r="K112" s="47"/>
-      <c r="L112" s="24"/>
+      <c r="H112" s="23"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="34"/>
     </row>
     <row r="113" spans="2:12" ht="17" customHeight="1">
-      <c r="B113" s="6"/>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24"/>
-      <c r="E113" s="23">
+      <c r="B113" s="23"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="5">
         <v>13</v>
       </c>
-      <c r="F113" s="45"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="24"/>
-      <c r="J113" s="24"/>
-      <c r="K113" s="47"/>
-      <c r="L113" s="24"/>
+      <c r="F113" s="48"/>
+      <c r="H113" s="23"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="34"/>
     </row>
     <row r="114" spans="2:12">
-      <c r="B114" s="6"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="23">
+      <c r="B114" s="23"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="5">
         <v>14</v>
       </c>
-      <c r="F114" s="45"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="24" t="s">
+      <c r="F114" s="48"/>
+      <c r="H114" s="23"/>
+      <c r="I114" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="J114" s="24"/>
-      <c r="K114" s="5" t="s">
+      <c r="J114" s="34"/>
+      <c r="K114" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="L114" s="24">
+      <c r="L114" s="34">
         <v>5</v>
       </c>
     </row>
     <row r="115" spans="2:12">
-      <c r="B115" s="6"/>
-      <c r="C115" s="24"/>
-      <c r="D115" s="24"/>
-      <c r="E115" s="23">
+      <c r="B115" s="23"/>
+      <c r="C115" s="34"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="5">
         <v>15</v>
       </c>
-      <c r="F115" s="45"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="24"/>
-      <c r="J115" s="24"/>
-      <c r="K115" s="5"/>
-      <c r="L115" s="24"/>
+      <c r="F115" s="48"/>
+      <c r="H115" s="23"/>
+      <c r="I115" s="34"/>
+      <c r="J115" s="34"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="34"/>
     </row>
     <row r="116" spans="2:12">
-      <c r="B116" s="6"/>
-      <c r="C116" s="24" t="s">
+      <c r="B116" s="23"/>
+      <c r="C116" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="D116" s="24" t="s">
+      <c r="D116" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="E116" s="23">
+      <c r="E116" s="5">
         <v>16</v>
       </c>
-      <c r="F116" s="45" t="s">
+      <c r="F116" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="H116" s="6"/>
-      <c r="I116" s="24"/>
-      <c r="J116" s="24"/>
-      <c r="K116" s="5"/>
-      <c r="L116" s="24"/>
+      <c r="H116" s="23"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="34"/>
     </row>
     <row r="117" spans="2:12">
-      <c r="B117" s="6"/>
-      <c r="C117" s="24"/>
-      <c r="D117" s="24"/>
-      <c r="E117" s="23">
+      <c r="B117" s="23"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="5">
         <v>17</v>
       </c>
-      <c r="F117" s="45"/>
-      <c r="H117" s="6"/>
-      <c r="I117" s="24" t="s">
+      <c r="F117" s="48"/>
+      <c r="H117" s="23"/>
+      <c r="I117" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="J117" s="24"/>
-      <c r="K117" s="5" t="s">
+      <c r="J117" s="34"/>
+      <c r="K117" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="L117" s="24">
+      <c r="L117" s="34">
         <v>6</v>
       </c>
     </row>
     <row r="118" spans="2:12">
-      <c r="B118" s="6"/>
-      <c r="C118" s="24"/>
-      <c r="D118" s="24"/>
-      <c r="E118" s="23">
+      <c r="B118" s="23"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="5">
         <v>18</v>
       </c>
-      <c r="F118" s="45"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="24"/>
-      <c r="J118" s="24"/>
-      <c r="K118" s="5"/>
-      <c r="L118" s="24"/>
+      <c r="F118" s="48"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="34"/>
     </row>
     <row r="119" spans="2:12" ht="17">
-      <c r="B119" s="6"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="23">
+      <c r="B119" s="23"/>
+      <c r="C119" s="34"/>
+      <c r="D119" s="34"/>
+      <c r="E119" s="5">
         <v>19</v>
       </c>
-      <c r="F119" s="45"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="24" t="s">
+      <c r="F119" s="48"/>
+      <c r="H119" s="23"/>
+      <c r="I119" s="34" t="s">
         <v>339</v>
       </c>
-      <c r="J119" s="24"/>
-      <c r="K119" s="42" t="s">
+      <c r="J119" s="34"/>
+      <c r="K119" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="L119" s="23">
+      <c r="L119" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="120" spans="2:12" ht="17" customHeight="1">
-      <c r="B120" s="6"/>
-      <c r="C120" s="43" t="s">
+      <c r="B120" s="23"/>
+      <c r="C120" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D120" s="24" t="s">
+      <c r="D120" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="E120" s="23">
+      <c r="E120" s="5">
         <v>20</v>
       </c>
-      <c r="F120" s="45" t="s">
+      <c r="F120" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="H120" s="6"/>
-      <c r="I120" s="24" t="s">
+      <c r="H120" s="23"/>
+      <c r="I120" s="34" t="s">
         <v>340</v>
       </c>
-      <c r="J120" s="24"/>
-      <c r="K120" s="46" t="s">
+      <c r="J120" s="34"/>
+      <c r="K120" s="43" t="s">
         <v>325</v>
       </c>
-      <c r="L120" s="24">
+      <c r="L120" s="34">
         <v>8</v>
       </c>
     </row>
     <row r="121" spans="2:12">
-      <c r="B121" s="6"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="24"/>
-      <c r="E121" s="23">
+      <c r="B121" s="23"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="34"/>
+      <c r="E121" s="5">
         <v>21</v>
       </c>
-      <c r="F121" s="45"/>
-      <c r="H121" s="6"/>
-      <c r="I121" s="24"/>
-      <c r="J121" s="24"/>
-      <c r="K121" s="46"/>
-      <c r="L121" s="24"/>
+      <c r="F121" s="48"/>
+      <c r="H121" s="23"/>
+      <c r="I121" s="34"/>
+      <c r="J121" s="34"/>
+      <c r="K121" s="43"/>
+      <c r="L121" s="34"/>
     </row>
     <row r="122" spans="2:12">
-      <c r="B122" s="6"/>
-      <c r="C122" s="43"/>
-      <c r="D122" s="24"/>
-      <c r="E122" s="23">
+      <c r="B122" s="23"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="5">
         <v>22</v>
       </c>
-      <c r="F122" s="45"/>
-      <c r="H122" s="6"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="24"/>
-      <c r="K122" s="46"/>
-      <c r="L122" s="24"/>
+      <c r="F122" s="48"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="43"/>
+      <c r="L122" s="34"/>
     </row>
     <row r="123" spans="2:12" ht="17" customHeight="1">
-      <c r="B123" s="6"/>
-      <c r="C123" s="43"/>
-      <c r="D123" s="24"/>
-      <c r="E123" s="23">
+      <c r="B123" s="23"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="5">
         <v>23</v>
       </c>
-      <c r="F123" s="45"/>
-      <c r="H123" s="6"/>
-      <c r="I123" s="24" t="s">
+      <c r="F123" s="48"/>
+      <c r="H123" s="23"/>
+      <c r="I123" s="34" t="s">
         <v>341</v>
       </c>
-      <c r="J123" s="24"/>
-      <c r="K123" s="46" t="s">
+      <c r="J123" s="34"/>
+      <c r="K123" s="43" t="s">
         <v>326</v>
       </c>
-      <c r="L123" s="24">
+      <c r="L123" s="34">
         <v>9</v>
       </c>
     </row>
     <row r="124" spans="2:12">
-      <c r="B124" s="6"/>
-      <c r="C124" s="43" t="s">
+      <c r="B124" s="23"/>
+      <c r="C124" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D124" s="24" t="s">
+      <c r="D124" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="E124" s="23">
+      <c r="E124" s="5">
         <v>24</v>
       </c>
-      <c r="F124" s="45" t="s">
+      <c r="F124" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="H124" s="6"/>
-      <c r="I124" s="24"/>
-      <c r="J124" s="24"/>
-      <c r="K124" s="46"/>
-      <c r="L124" s="24"/>
+      <c r="H124" s="23"/>
+      <c r="I124" s="34"/>
+      <c r="J124" s="34"/>
+      <c r="K124" s="43"/>
+      <c r="L124" s="34"/>
     </row>
     <row r="125" spans="2:12">
-      <c r="B125" s="6"/>
-      <c r="C125" s="43"/>
-      <c r="D125" s="24"/>
-      <c r="E125" s="23">
+      <c r="B125" s="23"/>
+      <c r="C125" s="49"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="5">
         <v>25</v>
       </c>
-      <c r="F125" s="45"/>
-      <c r="H125" s="6"/>
-      <c r="I125" s="24"/>
-      <c r="J125" s="24"/>
-      <c r="K125" s="46"/>
-      <c r="L125" s="24"/>
+      <c r="F125" s="48"/>
+      <c r="H125" s="23"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="34"/>
+      <c r="K125" s="43"/>
+      <c r="L125" s="34"/>
     </row>
     <row r="126" spans="2:12" ht="17" customHeight="1">
-      <c r="B126" s="6"/>
-      <c r="C126" s="43"/>
-      <c r="D126" s="24"/>
-      <c r="E126" s="23">
+      <c r="B126" s="23"/>
+      <c r="C126" s="49"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="5">
         <v>26</v>
       </c>
-      <c r="F126" s="45"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="24" t="s">
+      <c r="F126" s="48"/>
+      <c r="H126" s="23"/>
+      <c r="I126" s="34" t="s">
         <v>342</v>
       </c>
-      <c r="J126" s="24"/>
-      <c r="K126" s="46" t="s">
+      <c r="J126" s="34"/>
+      <c r="K126" s="43" t="s">
         <v>327</v>
       </c>
-      <c r="L126" s="24">
+      <c r="L126" s="34">
         <v>10</v>
       </c>
     </row>
     <row r="127" spans="2:12" ht="17" customHeight="1">
-      <c r="B127" s="6"/>
-      <c r="C127" s="43"/>
-      <c r="D127" s="24"/>
-      <c r="E127" s="23">
+      <c r="B127" s="23"/>
+      <c r="C127" s="49"/>
+      <c r="D127" s="34"/>
+      <c r="E127" s="5">
         <v>27</v>
       </c>
-      <c r="F127" s="45"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="24"/>
-      <c r="J127" s="24"/>
-      <c r="K127" s="46"/>
-      <c r="L127" s="24"/>
+      <c r="F127" s="48"/>
+      <c r="H127" s="23"/>
+      <c r="I127" s="34"/>
+      <c r="J127" s="34"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="34"/>
     </row>
     <row r="128" spans="2:12">
-      <c r="B128" s="6"/>
-      <c r="C128" s="43" t="s">
+      <c r="B128" s="23"/>
+      <c r="C128" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D128" s="24" t="s">
+      <c r="D128" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="E128" s="23">
+      <c r="E128" s="5">
         <v>28</v>
       </c>
-      <c r="F128" s="45" t="s">
+      <c r="F128" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="H128" s="6"/>
-      <c r="I128" s="24" t="s">
+      <c r="H128" s="23"/>
+      <c r="I128" s="34" t="s">
         <v>343</v>
       </c>
-      <c r="J128" s="24"/>
-      <c r="K128" s="5" t="s">
+      <c r="J128" s="34"/>
+      <c r="K128" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="L128" s="24">
+      <c r="L128" s="34">
         <v>11</v>
       </c>
     </row>
     <row r="129" spans="2:12">
-      <c r="B129" s="6"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="24"/>
-      <c r="E129" s="23">
+      <c r="B129" s="23"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="34"/>
+      <c r="E129" s="5">
         <v>29</v>
       </c>
-      <c r="F129" s="45"/>
-      <c r="H129" s="6"/>
-      <c r="I129" s="24"/>
-      <c r="J129" s="24"/>
-      <c r="K129" s="5"/>
-      <c r="L129" s="24"/>
+      <c r="F129" s="48"/>
+      <c r="H129" s="23"/>
+      <c r="I129" s="34"/>
+      <c r="J129" s="34"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="34"/>
     </row>
     <row r="130" spans="2:12">
-      <c r="B130" s="6"/>
-      <c r="C130" s="43"/>
-      <c r="D130" s="24"/>
-      <c r="E130" s="23">
+      <c r="B130" s="23"/>
+      <c r="C130" s="49"/>
+      <c r="D130" s="34"/>
+      <c r="E130" s="5">
         <v>30</v>
       </c>
-      <c r="F130" s="45"/>
-      <c r="H130" s="6"/>
-      <c r="I130" s="24"/>
-      <c r="J130" s="24"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="24"/>
+      <c r="F130" s="48"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="34"/>
+      <c r="J130" s="34"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="34"/>
     </row>
     <row r="131" spans="2:12" ht="17">
-      <c r="B131" s="6"/>
-      <c r="C131" s="43"/>
-      <c r="D131" s="24"/>
-      <c r="E131" s="23">
+      <c r="B131" s="23"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="34"/>
+      <c r="E131" s="5">
         <v>31</v>
       </c>
-      <c r="F131" s="45"/>
-      <c r="H131" s="6"/>
-      <c r="I131" s="24" t="s">
+      <c r="F131" s="48"/>
+      <c r="H131" s="23"/>
+      <c r="I131" s="34" t="s">
         <v>344</v>
       </c>
-      <c r="J131" s="24"/>
-      <c r="K131" s="42" t="s">
+      <c r="J131" s="34"/>
+      <c r="K131" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="L131" s="23" t="s">
+      <c r="L131" s="5" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="132" spans="2:12" ht="16" customHeight="1">
-      <c r="B132" s="6"/>
-      <c r="C132" s="43" t="s">
+      <c r="B132" s="23"/>
+      <c r="C132" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D132" s="24" t="s">
+      <c r="D132" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="E132" s="23">
+      <c r="E132" s="5">
         <v>32</v>
       </c>
-      <c r="F132" s="45" t="s">
+      <c r="F132" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="H132" s="6"/>
-      <c r="I132" s="24" t="s">
+      <c r="H132" s="23"/>
+      <c r="I132" s="34" t="s">
         <v>345</v>
       </c>
-      <c r="J132" s="24"/>
-      <c r="K132" s="42" t="s">
+      <c r="J132" s="34"/>
+      <c r="K132" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="L132" s="23" t="s">
+      <c r="L132" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="133" spans="2:12" ht="17">
-      <c r="B133" s="6"/>
-      <c r="C133" s="43"/>
-      <c r="D133" s="24"/>
-      <c r="E133" s="23">
+      <c r="B133" s="23"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="5">
         <v>33</v>
       </c>
-      <c r="F133" s="45"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="24" t="s">
+      <c r="F133" s="48"/>
+      <c r="H133" s="23"/>
+      <c r="I133" s="34" t="s">
         <v>346</v>
       </c>
-      <c r="J133" s="24"/>
-      <c r="K133" s="42" t="s">
+      <c r="J133" s="34"/>
+      <c r="K133" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="L133" s="23" t="s">
+      <c r="L133" s="5" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="134" spans="2:12" ht="17">
-      <c r="B134" s="6"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="24"/>
-      <c r="E134" s="23">
+      <c r="B134" s="23"/>
+      <c r="C134" s="49"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="5">
         <v>34</v>
       </c>
-      <c r="F134" s="45"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="24" t="s">
+      <c r="F134" s="48"/>
+      <c r="H134" s="23"/>
+      <c r="I134" s="34" t="s">
         <v>347</v>
       </c>
-      <c r="J134" s="24"/>
-      <c r="K134" s="42" t="s">
+      <c r="J134" s="34"/>
+      <c r="K134" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="L134" s="23" t="s">
+      <c r="L134" s="5" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="135" spans="2:12">
-      <c r="B135" s="6"/>
-      <c r="C135" s="43"/>
-      <c r="D135" s="24"/>
-      <c r="E135" s="23">
+      <c r="B135" s="23"/>
+      <c r="C135" s="49"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="5">
         <v>35</v>
       </c>
-      <c r="F135" s="45"/>
+      <c r="F135" s="48"/>
     </row>
     <row r="136" spans="2:12">
-      <c r="B136" s="6"/>
-      <c r="C136" s="43" t="s">
+      <c r="B136" s="23"/>
+      <c r="C136" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="D136" s="24" t="s">
+      <c r="D136" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="E136" s="23">
+      <c r="E136" s="5">
         <v>36</v>
       </c>
-      <c r="F136" s="45" t="s">
+      <c r="F136" s="48" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="137" spans="2:12">
-      <c r="B137" s="6"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="24"/>
-      <c r="E137" s="23">
+      <c r="B137" s="23"/>
+      <c r="C137" s="49"/>
+      <c r="D137" s="34"/>
+      <c r="E137" s="5">
         <v>37</v>
       </c>
-      <c r="F137" s="45"/>
+      <c r="F137" s="48"/>
     </row>
     <row r="138" spans="2:12">
-      <c r="B138" s="6"/>
-      <c r="C138" s="43"/>
-      <c r="D138" s="24"/>
-      <c r="E138" s="23">
+      <c r="B138" s="23"/>
+      <c r="C138" s="49"/>
+      <c r="D138" s="34"/>
+      <c r="E138" s="5">
         <v>38</v>
       </c>
-      <c r="F138" s="45"/>
+      <c r="F138" s="48"/>
     </row>
     <row r="139" spans="2:12">
-      <c r="B139" s="6"/>
-      <c r="C139" s="43"/>
-      <c r="D139" s="24"/>
-      <c r="E139" s="23">
+      <c r="B139" s="23"/>
+      <c r="C139" s="49"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="5">
         <v>39</v>
       </c>
-      <c r="F139" s="45"/>
+      <c r="F139" s="48"/>
     </row>
     <row r="140" spans="2:12" ht="17">
-      <c r="H140" s="6" t="s">
+      <c r="H140" s="23" t="s">
         <v>364</v>
       </c>
-      <c r="I140" s="47" t="s">
+      <c r="I140" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="J140" s="47"/>
-      <c r="K140" s="42" t="s">
+      <c r="J140" s="42"/>
+      <c r="K140" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="L140" s="42" t="s">
+      <c r="L140" s="8" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="141" spans="2:12" ht="17">
-      <c r="H141" s="6"/>
-      <c r="I141" s="48" t="s">
+      <c r="H141" s="23"/>
+      <c r="I141" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="J141" s="48"/>
-      <c r="K141" s="42" t="s">
+      <c r="J141" s="41"/>
+      <c r="K141" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="L141" s="49" t="s">
+      <c r="L141" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="142" spans="2:12" ht="17" customHeight="1">
-      <c r="H142" s="6"/>
-      <c r="I142" s="50" t="s">
+      <c r="H142" s="23"/>
+      <c r="I142" s="44" t="s">
         <v>356</v>
       </c>
-      <c r="J142" s="50"/>
-      <c r="K142" s="46" t="s">
+      <c r="J142" s="44"/>
+      <c r="K142" s="43" t="s">
         <v>357</v>
       </c>
-      <c r="L142" s="48" t="s">
+      <c r="L142" s="41" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="143" spans="2:12">
-      <c r="H143" s="6"/>
-      <c r="I143" s="50"/>
-      <c r="J143" s="50"/>
-      <c r="K143" s="46"/>
-      <c r="L143" s="48"/>
+      <c r="H143" s="23"/>
+      <c r="I143" s="44"/>
+      <c r="J143" s="44"/>
+      <c r="K143" s="43"/>
+      <c r="L143" s="41"/>
     </row>
     <row r="144" spans="2:12">
-      <c r="H144" s="6"/>
-      <c r="I144" s="50"/>
-      <c r="J144" s="50"/>
-      <c r="K144" s="46"/>
-      <c r="L144" s="48"/>
+      <c r="H144" s="23"/>
+      <c r="I144" s="44"/>
+      <c r="J144" s="44"/>
+      <c r="K144" s="43"/>
+      <c r="L144" s="41"/>
     </row>
     <row r="145" spans="8:12" ht="17">
-      <c r="H145" s="6"/>
-      <c r="I145" s="48" t="s">
+      <c r="H145" s="23"/>
+      <c r="I145" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="J145" s="48"/>
-      <c r="K145" s="42" t="s">
+      <c r="J145" s="41"/>
+      <c r="K145" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="L145" s="49" t="s">
+      <c r="L145" s="9" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="146" spans="8:12" ht="17">
-      <c r="H146" s="6"/>
-      <c r="I146" s="48" t="s">
+      <c r="H146" s="23"/>
+      <c r="I146" s="41" t="s">
         <v>361</v>
       </c>
-      <c r="J146" s="48"/>
-      <c r="K146" s="42" t="s">
+      <c r="J146" s="41"/>
+      <c r="K146" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="L146" s="49" t="s">
+      <c r="L146" s="9" t="s">
         <v>362</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="H140:H146"/>
-    <mergeCell ref="L142:L144"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="I141:J141"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="I146:J146"/>
-    <mergeCell ref="K142:K144"/>
-    <mergeCell ref="I142:J144"/>
-    <mergeCell ref="L114:L116"/>
-    <mergeCell ref="L117:L118"/>
-    <mergeCell ref="L120:L122"/>
-    <mergeCell ref="L123:L125"/>
-    <mergeCell ref="L126:L127"/>
-    <mergeCell ref="L128:L130"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="L64:L70"/>
-    <mergeCell ref="L72:L78"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="L82:L88"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="L104:L109"/>
-    <mergeCell ref="L111:L113"/>
-    <mergeCell ref="I123:J125"/>
-    <mergeCell ref="I126:J127"/>
-    <mergeCell ref="I128:J130"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="I100:J101"/>
-    <mergeCell ref="I102:J103"/>
-    <mergeCell ref="I104:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J113"/>
-    <mergeCell ref="I114:J116"/>
-    <mergeCell ref="I117:J118"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I120:J122"/>
-    <mergeCell ref="K111:K113"/>
-    <mergeCell ref="K114:K116"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="K120:K122"/>
-    <mergeCell ref="K123:K125"/>
-    <mergeCell ref="K126:K127"/>
-    <mergeCell ref="I80:J81"/>
-    <mergeCell ref="I82:J88"/>
-    <mergeCell ref="H62:H89"/>
-    <mergeCell ref="K100:K101"/>
-    <mergeCell ref="K102:K103"/>
-    <mergeCell ref="K104:K109"/>
-    <mergeCell ref="H100:H134"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="K82:K88"/>
-    <mergeCell ref="I62:J63"/>
-    <mergeCell ref="I64:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="K64:K70"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="K72:K78"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="F128:F131"/>
-    <mergeCell ref="D132:D135"/>
-    <mergeCell ref="F132:F135"/>
-    <mergeCell ref="D136:D139"/>
-    <mergeCell ref="F136:F139"/>
-    <mergeCell ref="D116:D119"/>
-    <mergeCell ref="F116:F119"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="F120:F123"/>
-    <mergeCell ref="D124:D127"/>
-    <mergeCell ref="F124:F127"/>
-    <mergeCell ref="C136:C139"/>
-    <mergeCell ref="B100:B139"/>
-    <mergeCell ref="D100:D103"/>
-    <mergeCell ref="F100:F103"/>
-    <mergeCell ref="D104:D107"/>
-    <mergeCell ref="F104:F107"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="F108:F111"/>
-    <mergeCell ref="D112:D115"/>
-    <mergeCell ref="F112:F115"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C120:C123"/>
-    <mergeCell ref="C124:C127"/>
-    <mergeCell ref="C128:C131"/>
-    <mergeCell ref="C132:C135"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="B62:B93"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C104:C107"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="H3:H19"/>
+    <mergeCell ref="H21:H29"/>
+    <mergeCell ref="C4:C19"/>
+    <mergeCell ref="D4:D19"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="F4:F19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="F36:F39"/>
     <mergeCell ref="F50:F51"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="F54:F55"/>
@@ -7278,33 +8454,120 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="F46:F47"/>
     <mergeCell ref="F48:F49"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="F4:F19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H3:H19"/>
-    <mergeCell ref="H21:H29"/>
-    <mergeCell ref="C4:C19"/>
-    <mergeCell ref="D4:D19"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="B62:B93"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C104:C107"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="C136:C139"/>
+    <mergeCell ref="B100:B139"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="D104:D107"/>
+    <mergeCell ref="F104:F107"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="F108:F111"/>
+    <mergeCell ref="D112:D115"/>
+    <mergeCell ref="F112:F115"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C120:C123"/>
+    <mergeCell ref="C124:C127"/>
+    <mergeCell ref="C128:C131"/>
+    <mergeCell ref="C132:C135"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="F128:F131"/>
+    <mergeCell ref="D132:D135"/>
+    <mergeCell ref="F132:F135"/>
+    <mergeCell ref="D136:D139"/>
+    <mergeCell ref="F136:F139"/>
+    <mergeCell ref="D116:D119"/>
+    <mergeCell ref="F116:F119"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="F120:F123"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="F124:F127"/>
+    <mergeCell ref="K111:K113"/>
+    <mergeCell ref="K114:K116"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="K120:K122"/>
+    <mergeCell ref="K123:K125"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="I80:J81"/>
+    <mergeCell ref="I82:J88"/>
+    <mergeCell ref="H62:H89"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="K104:K109"/>
+    <mergeCell ref="H100:H134"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="K82:K88"/>
+    <mergeCell ref="I62:J63"/>
+    <mergeCell ref="I64:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="K64:K70"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K72:K78"/>
+    <mergeCell ref="I100:J101"/>
+    <mergeCell ref="I102:J103"/>
+    <mergeCell ref="I104:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I111:J113"/>
+    <mergeCell ref="I114:J116"/>
+    <mergeCell ref="I117:J118"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I120:J122"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="L64:L70"/>
+    <mergeCell ref="L72:L78"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="L82:L88"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L104:L109"/>
+    <mergeCell ref="L111:L113"/>
+    <mergeCell ref="H140:H146"/>
+    <mergeCell ref="L142:L144"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="I141:J141"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="I146:J146"/>
+    <mergeCell ref="K142:K144"/>
+    <mergeCell ref="I142:J144"/>
+    <mergeCell ref="L114:L116"/>
+    <mergeCell ref="L117:L118"/>
+    <mergeCell ref="L120:L122"/>
+    <mergeCell ref="L123:L125"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="L128:L130"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I123:J125"/>
+    <mergeCell ref="I126:J127"/>
+    <mergeCell ref="I128:J130"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K128:K130"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7315,4 +8578,544 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="8" max="8" width="4.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="5.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" customWidth="1"/>
+    <col min="13" max="13" width="44" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>404</v>
+      </c>
+      <c r="K1" t="s">
+        <v>494</v>
+      </c>
+      <c r="L1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="B2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s">
+        <v>407</v>
+      </c>
+      <c r="K2" t="s">
+        <v>495</v>
+      </c>
+      <c r="L2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="B3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="B5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6" t="s">
+        <v>406</v>
+      </c>
+      <c r="D6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" t="s">
+        <v>413</v>
+      </c>
+      <c r="D7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="B9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C9" t="s">
+        <v>406</v>
+      </c>
+      <c r="D9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C10" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" t="s">
+        <v>418</v>
+      </c>
+      <c r="E10" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="B11" t="s">
+        <v>405</v>
+      </c>
+      <c r="C11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D11" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C12" t="s">
+        <v>420</v>
+      </c>
+      <c r="D12" t="s">
+        <v>421</v>
+      </c>
+      <c r="E12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="B13" t="s">
+        <v>423</v>
+      </c>
+      <c r="C13" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="B15" t="s">
+        <v>430</v>
+      </c>
+      <c r="C15" t="s">
+        <v>431</v>
+      </c>
+      <c r="D15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F15" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="B16" t="s">
+        <v>433</v>
+      </c>
+      <c r="C16" t="s">
+        <v>434</v>
+      </c>
+      <c r="D16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" t="s">
+        <v>437</v>
+      </c>
+      <c r="C17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" t="s">
+        <v>498</v>
+      </c>
+      <c r="K19" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
+      <c r="B21" t="s">
+        <v>405</v>
+      </c>
+      <c r="C21" t="s">
+        <v>490</v>
+      </c>
+      <c r="D21" t="s">
+        <v>491</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>441</v>
+      </c>
+      <c r="N21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>442</v>
+      </c>
+      <c r="N23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="H25" t="s">
+        <v>431</v>
+      </c>
+      <c r="I25" t="s">
+        <v>474</v>
+      </c>
+      <c r="J25" t="s">
+        <v>468</v>
+      </c>
+      <c r="K25" t="s">
+        <v>476</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>445</v>
+      </c>
+      <c r="N25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="H26" t="s">
+        <v>469</v>
+      </c>
+      <c r="I26" t="s">
+        <v>473</v>
+      </c>
+      <c r="J26" t="s">
+        <v>470</v>
+      </c>
+      <c r="K26" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
+      <c r="H27" t="s">
+        <v>471</v>
+      </c>
+      <c r="I27" t="s">
+        <v>472</v>
+      </c>
+      <c r="J27" t="s">
+        <v>435</v>
+      </c>
+      <c r="K27" t="s">
+        <v>478</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="I28" t="s">
+        <v>475</v>
+      </c>
+      <c r="K28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="L32" t="s">
+        <v>448</v>
+      </c>
+      <c r="M32" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="L34" t="s">
+        <v>450</v>
+      </c>
+      <c r="M34" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s">
+        <v>452</v>
+      </c>
+      <c r="I35" t="s">
+        <v>453</v>
+      </c>
+      <c r="J35" t="s">
+        <v>454</v>
+      </c>
+      <c r="K35" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="K36" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="G38" t="s">
+        <v>459</v>
+      </c>
+      <c r="H38" t="s">
+        <v>457</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38" t="s">
+        <v>462</v>
+      </c>
+      <c r="K38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="G40" t="s">
+        <v>455</v>
+      </c>
+      <c r="H40" t="s">
+        <v>460</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>461</v>
+      </c>
+      <c r="K40" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" t="s">
+        <v>482</v>
+      </c>
+      <c r="G41" t="s">
+        <v>464</v>
+      </c>
+      <c r="H41" t="s">
+        <v>465</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" t="s">
+        <v>467</v>
+      </c>
+      <c r="K41" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="B42" t="s">
+        <v>480</v>
+      </c>
+      <c r="C42" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="B43" t="s">
+        <v>483</v>
+      </c>
+      <c r="C43" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="B44" t="s">
+        <v>405</v>
+      </c>
+      <c r="C44" t="s">
+        <v>470</v>
+      </c>
+      <c r="D44" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="B45" t="s">
+        <v>405</v>
+      </c>
+      <c r="C45" t="s">
+        <v>469</v>
+      </c>
+      <c r="D45" t="s">
+        <v>468</v>
+      </c>
+      <c r="G45" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="B46" t="s">
+        <v>485</v>
+      </c>
+      <c r="C46" t="s">
+        <v>469</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="B47" t="s">
+        <v>486</v>
+      </c>
+      <c r="C47" t="s">
+        <v>487</v>
+      </c>
+      <c r="D47" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="B48" t="s">
+        <v>488</v>
+      </c>
+      <c r="C48" t="s">
+        <v>489</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49" t="s">
+        <v>405</v>
+      </c>
+      <c r="C49" t="s">
+        <v>431</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50" t="s">
+        <v>405</v>
+      </c>
+      <c r="C50" t="s">
+        <v>468</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51" t="s">
+        <v>423</v>
+      </c>
+      <c r="C51" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>